--- a/Code/Results/Cases/Case_5_93/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_93/res_line/pl_mw.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>5.468948626587178</v>
+        <v>1.823114002679745</v>
       </c>
       <c r="C2">
-        <v>1.677887332230966</v>
+        <v>0.4813958968679231</v>
       </c>
       <c r="D2">
-        <v>0.04975252548091902</v>
+        <v>0.03834743138354213</v>
       </c>
       <c r="E2">
-        <v>1.50939899407787</v>
+        <v>0.4165535847911457</v>
       </c>
       <c r="F2">
-        <v>2.933096948555573</v>
+        <v>1.607424994274538</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.7662818121604431</v>
+        <v>1.212118694768108</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>4.678966926910164</v>
+        <v>1.630456767043654</v>
       </c>
       <c r="C3">
-        <v>1.433953302596763</v>
+        <v>0.4204967157134547</v>
       </c>
       <c r="D3">
-        <v>0.04483094474485938</v>
+        <v>0.03753683670579733</v>
       </c>
       <c r="E3">
-        <v>1.278896600640834</v>
+        <v>0.3628436459713242</v>
       </c>
       <c r="F3">
-        <v>2.546928408920394</v>
+        <v>1.525055899423933</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.7857303719789712</v>
+        <v>1.220976500462896</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>4.206923039662058</v>
+        <v>1.5130977584638</v>
       </c>
       <c r="C4">
-        <v>1.288272118921498</v>
+        <v>0.3832437444423817</v>
       </c>
       <c r="D4">
-        <v>0.04212507575019941</v>
+        <v>0.0370738913139661</v>
       </c>
       <c r="E4">
-        <v>1.142959030617746</v>
+        <v>0.3300359615345201</v>
       </c>
       <c r="F4">
-        <v>2.320000491164649</v>
+        <v>1.475737788692058</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.8001945795632821</v>
+        <v>1.226962336557378</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>4.017276479079726</v>
+        <v>1.465500177147646</v>
       </c>
       <c r="C5">
-        <v>1.229751546091393</v>
+        <v>0.368095284847584</v>
       </c>
       <c r="D5">
-        <v>0.04109012775927567</v>
+        <v>0.03689378231912599</v>
       </c>
       <c r="E5">
-        <v>1.088714524515524</v>
+        <v>0.3167055049957952</v>
       </c>
       <c r="F5">
-        <v>2.229707208136276</v>
+        <v>1.455950422279628</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.8066586070511335</v>
+        <v>1.229537901306273</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>3.98593497084812</v>
+        <v>1.457610138403879</v>
       </c>
       <c r="C6">
-        <v>1.220080428933159</v>
+        <v>0.3655817777130892</v>
       </c>
       <c r="D6">
-        <v>0.0409220552856695</v>
+        <v>0.03686438576837503</v>
       </c>
       <c r="E6">
-        <v>1.079770082724423</v>
+        <v>0.3144942316036321</v>
       </c>
       <c r="F6">
-        <v>2.214835746127306</v>
+        <v>1.452683308102579</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.8077646426228071</v>
+        <v>1.229973765968055</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>4.204355086017699</v>
+        <v>1.512454930879699</v>
       </c>
       <c r="C7">
-        <v>1.287479690451335</v>
+        <v>0.383039319144018</v>
       </c>
       <c r="D7">
-        <v>0.04211085813278714</v>
+        <v>0.03707142796038454</v>
       </c>
       <c r="E7">
-        <v>1.142223117418268</v>
+        <v>0.3298560297946125</v>
       </c>
       <c r="F7">
-        <v>2.318774393699485</v>
+        <v>1.475469681206945</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.8002795277680903</v>
+        <v>1.226996521383782</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>5.193503022238872</v>
+        <v>1.756487451233681</v>
       </c>
       <c r="C8">
-        <v>1.592809372026693</v>
+        <v>0.4603673259097718</v>
       </c>
       <c r="D8">
-        <v>0.04798230693133831</v>
+        <v>0.03806060385504395</v>
       </c>
       <c r="E8">
-        <v>1.428594247013876</v>
+        <v>0.397996633269031</v>
       </c>
       <c r="F8">
-        <v>2.797587846024072</v>
+        <v>1.57875967946643</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.7724222269740295</v>
+        <v>1.215058535366232</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>7.266552242378054</v>
+        <v>2.24280884307052</v>
       </c>
       <c r="C9">
-        <v>2.234087656309327</v>
+        <v>0.6132401623679584</v>
       </c>
       <c r="D9">
-        <v>0.062653458608807</v>
+        <v>0.04028529937923508</v>
       </c>
       <c r="E9">
-        <v>2.048752004630813</v>
+        <v>0.5331574849092533</v>
       </c>
       <c r="F9">
-        <v>3.837808713342582</v>
+        <v>1.791563452685381</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.7413072283577691</v>
+        <v>1.196047647162132</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>8.923475356317056</v>
+        <v>2.605402809847362</v>
       </c>
       <c r="C10">
-        <v>2.748802828392911</v>
+        <v>0.7264963117532375</v>
       </c>
       <c r="D10">
-        <v>0.07652321467880796</v>
+        <v>0.04210642825474054</v>
       </c>
       <c r="E10">
-        <v>2.565874317756382</v>
+        <v>0.6336659378606555</v>
       </c>
       <c r="F10">
-        <v>4.699531739604851</v>
+        <v>1.954569570134367</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.7388851306767918</v>
+        <v>1.184843868109169</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>9.722346547608595</v>
+        <v>2.771630732378753</v>
       </c>
       <c r="C11">
-        <v>2.997854856208164</v>
+        <v>0.7782661748723285</v>
       </c>
       <c r="D11">
-        <v>0.08387364819024157</v>
+        <v>0.04297831604792179</v>
       </c>
       <c r="E11">
-        <v>2.822770576626382</v>
+        <v>0.6797117557207599</v>
       </c>
       <c r="F11">
-        <v>5.12361622661237</v>
+        <v>2.030262665696227</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.74408887916222</v>
+        <v>1.180365045838158</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>10.03316944382607</v>
+        <v>2.834771016760556</v>
       </c>
       <c r="C12">
-        <v>3.094930964864432</v>
+        <v>0.7979092261151663</v>
       </c>
       <c r="D12">
-        <v>0.08685021250184377</v>
+        <v>0.04331496359854015</v>
       </c>
       <c r="E12">
-        <v>2.924152901371713</v>
+        <v>0.697199565656021</v>
       </c>
       <c r="F12">
-        <v>5.290059066797198</v>
+        <v>2.059154535319635</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.7471793718668209</v>
+        <v>1.178759399911769</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>9.965823877422167</v>
+        <v>2.821163880238942</v>
       </c>
       <c r="C13">
-        <v>3.073888925705717</v>
+        <v>0.7936769618805215</v>
       </c>
       <c r="D13">
-        <v>0.0861997217659578</v>
+        <v>0.04324216841251882</v>
       </c>
       <c r="E13">
-        <v>2.902116598049162</v>
+        <v>0.6934308976683923</v>
       </c>
       <c r="F13">
-        <v>5.253928692331613</v>
+        <v>2.052921877308734</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.7464598862977709</v>
+        <v>1.179101159600208</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>9.74773929970911</v>
+        <v>2.776821393528394</v>
       </c>
       <c r="C14">
-        <v>3.005781702187335</v>
+        <v>0.779881422245353</v>
       </c>
       <c r="D14">
-        <v>0.08411436238851877</v>
+        <v>0.04300588095929214</v>
       </c>
       <c r="E14">
-        <v>2.831022305354779</v>
+        <v>0.6811494339380175</v>
       </c>
       <c r="F14">
-        <v>5.137183913829318</v>
+        <v>2.03263499648321</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.7443192435235062</v>
+        <v>1.180231127950719</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>9.615301125532369</v>
+        <v>2.749685795068274</v>
       </c>
       <c r="C15">
-        <v>2.964445859002581</v>
+        <v>0.7714364191049867</v>
       </c>
       <c r="D15">
-        <v>0.08286369534395277</v>
+        <v>0.04286199935777546</v>
       </c>
       <c r="E15">
-        <v>2.788044078644646</v>
+        <v>0.6736334985529879</v>
       </c>
       <c r="F15">
-        <v>5.066479271283612</v>
+        <v>2.020238668069311</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.7431612797168725</v>
+        <v>1.180935083537165</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>8.872319305275425</v>
+        <v>2.5945659884934</v>
       </c>
       <c r="C16">
-        <v>2.732875778965763</v>
+        <v>0.7231183056020996</v>
       </c>
       <c r="D16">
-        <v>0.07606720517564014</v>
+        <v>0.04205034256276718</v>
       </c>
       <c r="E16">
-        <v>2.549598545952222</v>
+        <v>0.6306636515447366</v>
       </c>
       <c r="F16">
-        <v>4.672560404155888</v>
+        <v>1.949654445585793</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.7386888151725373</v>
+        <v>1.185149133291389</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>8.429223737367352</v>
+        <v>2.499739728419115</v>
       </c>
       <c r="C17">
-        <v>2.595021789213035</v>
+        <v>0.6935426905603208</v>
       </c>
       <c r="D17">
-        <v>0.07219131098830189</v>
+        <v>0.04156371071912446</v>
       </c>
       <c r="E17">
-        <v>2.409474113727597</v>
+        <v>0.6043893134583556</v>
       </c>
       <c r="F17">
-        <v>4.439897914304225</v>
+        <v>1.90675285851168</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.737693885397789</v>
+        <v>1.18789364674906</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>8.17848112586006</v>
+        <v>2.445318296630035</v>
       </c>
       <c r="C18">
-        <v>2.517088938209838</v>
+        <v>0.6765548321291135</v>
       </c>
       <c r="D18">
-        <v>0.07005674833269637</v>
+        <v>0.04128788803190275</v>
       </c>
       <c r="E18">
-        <v>2.330842408864328</v>
+        <v>0.5893072213077204</v>
       </c>
       <c r="F18">
-        <v>4.309005481080618</v>
+        <v>1.882221601045472</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.7376994779227033</v>
+        <v>1.18953027760891</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>8.094243164403906</v>
+        <v>2.426912495739657</v>
       </c>
       <c r="C19">
-        <v>2.490919138164372</v>
+        <v>0.6708069353937844</v>
       </c>
       <c r="D19">
-        <v>0.06934918052720462</v>
+        <v>0.04119519203637623</v>
       </c>
       <c r="E19">
-        <v>2.304531265679728</v>
+        <v>0.5842057328244863</v>
       </c>
       <c r="F19">
-        <v>4.265158289146228</v>
+        <v>1.873940364122973</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.7377950564801381</v>
+        <v>1.190094337879785</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>8.475954642399756</v>
+        <v>2.509821648676223</v>
       </c>
       <c r="C20">
-        <v>2.60955218253082</v>
+        <v>0.6966886363742901</v>
       </c>
       <c r="D20">
-        <v>0.07259382790540769</v>
+        <v>0.04161509007005293</v>
       </c>
       <c r="E20">
-        <v>2.424181162554532</v>
+        <v>0.6071831013337743</v>
       </c>
       <c r="F20">
-        <v>4.464354231647661</v>
+        <v>1.911304790056136</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.7377386362788911</v>
+        <v>1.187595468608365</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>9.811553388556035</v>
+        <v>2.789840535537792</v>
       </c>
       <c r="C21">
-        <v>3.025705489588347</v>
+        <v>0.7839324249746369</v>
       </c>
       <c r="D21">
-        <v>0.08472122541935079</v>
+        <v>0.04307510647793578</v>
       </c>
       <c r="E21">
-        <v>2.851783566085047</v>
+        <v>0.6847553686611576</v>
       </c>
       <c r="F21">
-        <v>5.171304195904781</v>
+        <v>2.038587486369266</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.7449155932868194</v>
+        <v>1.179896763329893</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>10.73414594532971</v>
+        <v>2.97398057198302</v>
       </c>
       <c r="C22">
-        <v>3.314246898120984</v>
+        <v>0.841179685161535</v>
       </c>
       <c r="D22">
-        <v>0.09380444722502546</v>
+        <v>0.04406720988179558</v>
       </c>
       <c r="E22">
-        <v>3.155885617354116</v>
+        <v>0.7357543503820239</v>
       </c>
       <c r="F22">
-        <v>5.66831228757394</v>
+        <v>2.123109523238497</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.756283968867038</v>
+        <v>1.175392796021939</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>10.23644040212434</v>
+        <v>2.875594996329028</v>
       </c>
       <c r="C23">
-        <v>3.158472466040735</v>
+        <v>0.8106037976108951</v>
       </c>
       <c r="D23">
-        <v>0.0888323051435691</v>
+        <v>0.04353415888736123</v>
       </c>
       <c r="E23">
-        <v>2.990903722353877</v>
+        <v>0.7085061186113251</v>
       </c>
       <c r="F23">
-        <v>5.399336969615632</v>
+        <v>2.077873984331234</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.7495171252934796</v>
+        <v>1.177747856566313</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>8.454815274020177</v>
+        <v>2.505263315905779</v>
       </c>
       <c r="C24">
-        <v>2.602978920579233</v>
+        <v>0.6952663060501436</v>
       </c>
       <c r="D24">
-        <v>0.07241156109891023</v>
+        <v>0.04159184918428593</v>
       </c>
       <c r="E24">
-        <v>2.417526171041672</v>
+        <v>0.6059199573793705</v>
       </c>
       <c r="F24">
-        <v>4.453288684573465</v>
+        <v>1.90924644670568</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.7377166205309749</v>
+        <v>1.187730091995817</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6.686710289153893</v>
+        <v>2.110357201227885</v>
       </c>
       <c r="C25">
-        <v>2.054463834770274</v>
+        <v>0.5717327513650616</v>
       </c>
       <c r="D25">
-        <v>0.0582428326841864</v>
+        <v>0.03965163600347665</v>
       </c>
       <c r="E25">
-        <v>1.872432136974894</v>
+        <v>0.4964009163727496</v>
       </c>
       <c r="F25">
-        <v>3.54232938790534</v>
+        <v>1.732855016866665</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.7466566342944532</v>
+        <v>1.200711276772694</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_93/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_93/res_line/pl_mw.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.823114002679745</v>
+        <v>5.468948626587064</v>
       </c>
       <c r="C2">
-        <v>0.4813958968679231</v>
+        <v>1.677887332230739</v>
       </c>
       <c r="D2">
-        <v>0.03834743138354213</v>
+        <v>0.04975252548079823</v>
       </c>
       <c r="E2">
-        <v>0.4165535847911457</v>
+        <v>1.50939899407787</v>
       </c>
       <c r="F2">
-        <v>1.607424994274538</v>
+        <v>2.933096948555573</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.212118694768108</v>
+        <v>0.7662818121604431</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.630456767043654</v>
+        <v>4.678966926910221</v>
       </c>
       <c r="C3">
-        <v>0.4204967157134547</v>
+        <v>1.433953302597047</v>
       </c>
       <c r="D3">
-        <v>0.03753683670579733</v>
+        <v>0.04483094474463911</v>
       </c>
       <c r="E3">
-        <v>0.3628436459713242</v>
+        <v>1.278896600640849</v>
       </c>
       <c r="F3">
-        <v>1.525055899423933</v>
+        <v>2.546928408920394</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.220976500462896</v>
+        <v>0.7857303719789144</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.5130977584638</v>
+        <v>4.206923039661945</v>
       </c>
       <c r="C4">
-        <v>0.3832437444423817</v>
+        <v>1.28827211892127</v>
       </c>
       <c r="D4">
-        <v>0.0370738913139661</v>
+        <v>0.04212507575020652</v>
       </c>
       <c r="E4">
-        <v>0.3300359615345201</v>
+        <v>1.142959030617789</v>
       </c>
       <c r="F4">
-        <v>1.475737788692058</v>
+        <v>2.32000049116462</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.226962336557378</v>
+        <v>0.8001945795633105</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.465500177147646</v>
+        <v>4.017276479079896</v>
       </c>
       <c r="C5">
-        <v>0.368095284847584</v>
+        <v>1.229751546091336</v>
       </c>
       <c r="D5">
-        <v>0.03689378231912599</v>
+        <v>0.04109012775894172</v>
       </c>
       <c r="E5">
-        <v>0.3167055049957952</v>
+        <v>1.08871452451551</v>
       </c>
       <c r="F5">
-        <v>1.455950422279628</v>
+        <v>2.229707208136247</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.229537901306273</v>
+        <v>0.8066586070511619</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.457610138403879</v>
+        <v>3.985934970848007</v>
       </c>
       <c r="C6">
-        <v>0.3655817777130892</v>
+        <v>1.220080428933443</v>
       </c>
       <c r="D6">
-        <v>0.03686438576837503</v>
+        <v>0.0409220552856695</v>
       </c>
       <c r="E6">
-        <v>0.3144942316036321</v>
+        <v>1.079770082724409</v>
       </c>
       <c r="F6">
-        <v>1.452683308102579</v>
+        <v>2.214835746127306</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.229973765968055</v>
+        <v>0.8077646426227858</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.512454930879699</v>
+        <v>4.204355086017642</v>
       </c>
       <c r="C7">
-        <v>0.383039319144018</v>
+        <v>1.28747969045088</v>
       </c>
       <c r="D7">
-        <v>0.03707142796038454</v>
+        <v>0.04211085813290083</v>
       </c>
       <c r="E7">
-        <v>0.3298560297946125</v>
+        <v>1.142223117418212</v>
       </c>
       <c r="F7">
-        <v>1.475469681206945</v>
+        <v>2.318774393699485</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.226996521383782</v>
+        <v>0.8002795277680974</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.756487451233681</v>
+        <v>5.193503022238644</v>
       </c>
       <c r="C8">
-        <v>0.4603673259097718</v>
+        <v>1.592809372026977</v>
       </c>
       <c r="D8">
-        <v>0.03806060385504395</v>
+        <v>0.04798230693134542</v>
       </c>
       <c r="E8">
-        <v>0.397996633269031</v>
+        <v>1.428594247013876</v>
       </c>
       <c r="F8">
-        <v>1.57875967946643</v>
+        <v>2.797587846024072</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.215058535366232</v>
+        <v>0.7724222269740437</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.24280884307052</v>
+        <v>7.266552242377941</v>
       </c>
       <c r="C9">
-        <v>0.6132401623679584</v>
+        <v>2.234087656309612</v>
       </c>
       <c r="D9">
-        <v>0.04028529937923508</v>
+        <v>0.06265345860855831</v>
       </c>
       <c r="E9">
-        <v>0.5331574849092533</v>
+        <v>2.048752004630714</v>
       </c>
       <c r="F9">
-        <v>1.791563452685381</v>
+        <v>3.837808713342554</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.196047647162132</v>
+        <v>0.7413072283577549</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.605402809847362</v>
+        <v>8.923475356317113</v>
       </c>
       <c r="C10">
-        <v>0.7264963117532375</v>
+        <v>2.748802828393195</v>
       </c>
       <c r="D10">
-        <v>0.04210642825474054</v>
+        <v>0.07652321467896428</v>
       </c>
       <c r="E10">
-        <v>0.6336659378606555</v>
+        <v>2.565874317756368</v>
       </c>
       <c r="F10">
-        <v>1.954569570134367</v>
+        <v>4.699531739604851</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.184843868109169</v>
+        <v>0.7388851306768061</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.771630732378753</v>
+        <v>9.722346547608367</v>
       </c>
       <c r="C11">
-        <v>0.7782661748723285</v>
+        <v>2.997854856207709</v>
       </c>
       <c r="D11">
-        <v>0.04297831604792179</v>
+        <v>0.08387364819040499</v>
       </c>
       <c r="E11">
-        <v>0.6797117557207599</v>
+        <v>2.822770576626368</v>
       </c>
       <c r="F11">
-        <v>2.030262665696227</v>
+        <v>5.12361622661237</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.180365045838158</v>
+        <v>0.7440888791622484</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.834771016760556</v>
+        <v>10.03316944382607</v>
       </c>
       <c r="C12">
-        <v>0.7979092261151663</v>
+        <v>3.094930964864147</v>
       </c>
       <c r="D12">
-        <v>0.04331496359854015</v>
+        <v>0.08685021250204983</v>
       </c>
       <c r="E12">
-        <v>0.697199565656021</v>
+        <v>2.924152901371755</v>
       </c>
       <c r="F12">
-        <v>2.059154535319635</v>
+        <v>5.290059066797227</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.178759399911769</v>
+        <v>0.7471793718668209</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.821163880238942</v>
+        <v>9.965823877422395</v>
       </c>
       <c r="C13">
-        <v>0.7936769618805215</v>
+        <v>3.073888925705376</v>
       </c>
       <c r="D13">
-        <v>0.04324216841251882</v>
+        <v>0.08619972176609281</v>
       </c>
       <c r="E13">
-        <v>0.6934308976683923</v>
+        <v>2.902116598049233</v>
       </c>
       <c r="F13">
-        <v>2.052921877308734</v>
+        <v>5.253928692331669</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.179101159600208</v>
+        <v>0.7464598862978278</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.776821393528394</v>
+        <v>9.747739299708883</v>
       </c>
       <c r="C14">
-        <v>0.779881422245353</v>
+        <v>3.005781702187107</v>
       </c>
       <c r="D14">
-        <v>0.04300588095929214</v>
+        <v>0.08411436238852588</v>
       </c>
       <c r="E14">
-        <v>0.6811494339380175</v>
+        <v>2.831022305354765</v>
       </c>
       <c r="F14">
-        <v>2.03263499648321</v>
+        <v>5.137183913829318</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.180231127950719</v>
+        <v>0.7443192435234494</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.749685795068274</v>
+        <v>9.615301125532255</v>
       </c>
       <c r="C15">
-        <v>0.7714364191049867</v>
+        <v>2.964445859002581</v>
       </c>
       <c r="D15">
-        <v>0.04286199935777546</v>
+        <v>0.08286369534403093</v>
       </c>
       <c r="E15">
-        <v>0.6736334985529879</v>
+        <v>2.788044078644646</v>
       </c>
       <c r="F15">
-        <v>2.020238668069311</v>
+        <v>5.066479271283555</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.180935083537165</v>
+        <v>0.7431612797168583</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.5945659884934</v>
+        <v>8.872319305275198</v>
       </c>
       <c r="C16">
-        <v>0.7231183056020996</v>
+        <v>2.732875778965706</v>
       </c>
       <c r="D16">
-        <v>0.04205034256276718</v>
+        <v>0.07606720517550514</v>
       </c>
       <c r="E16">
-        <v>0.6306636515447366</v>
+        <v>2.549598545952236</v>
       </c>
       <c r="F16">
-        <v>1.949654445585793</v>
+        <v>4.67256040415586</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.185149133291389</v>
+        <v>0.7386888151724804</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.499739728419115</v>
+        <v>8.429223737367352</v>
       </c>
       <c r="C17">
-        <v>0.6935426905603208</v>
+        <v>2.595021789212751</v>
       </c>
       <c r="D17">
-        <v>0.04156371071912446</v>
+        <v>0.07219131098850795</v>
       </c>
       <c r="E17">
-        <v>0.6043893134583556</v>
+        <v>2.409474113727626</v>
       </c>
       <c r="F17">
-        <v>1.90675285851168</v>
+        <v>4.439897914304254</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.18789364674906</v>
+        <v>0.737693885397789</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.445318296630035</v>
+        <v>8.178481125860174</v>
       </c>
       <c r="C18">
-        <v>0.6765548321291135</v>
+        <v>2.517088938209952</v>
       </c>
       <c r="D18">
-        <v>0.04128788803190275</v>
+        <v>0.07005674833269637</v>
       </c>
       <c r="E18">
-        <v>0.5893072213077204</v>
+        <v>2.330842408864399</v>
       </c>
       <c r="F18">
-        <v>1.882221601045472</v>
+        <v>4.309005481080561</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.18953027760891</v>
+        <v>0.7376994779227175</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.426912495739657</v>
+        <v>8.094243164403792</v>
       </c>
       <c r="C19">
-        <v>0.6708069353937844</v>
+        <v>2.490919138164315</v>
       </c>
       <c r="D19">
-        <v>0.04119519203637623</v>
+        <v>0.06934918052709094</v>
       </c>
       <c r="E19">
-        <v>0.5842057328244863</v>
+        <v>2.304531265679742</v>
       </c>
       <c r="F19">
-        <v>1.873940364122973</v>
+        <v>4.2651582891462</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.190094337879785</v>
+        <v>0.7377950564800813</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.509821648676223</v>
+        <v>8.475954642399756</v>
       </c>
       <c r="C20">
-        <v>0.6966886363742901</v>
+        <v>2.609552182530877</v>
       </c>
       <c r="D20">
-        <v>0.04161509007005293</v>
+        <v>0.07259382790524427</v>
       </c>
       <c r="E20">
-        <v>0.6071831013337743</v>
+        <v>2.424181162554561</v>
       </c>
       <c r="F20">
-        <v>1.911304790056136</v>
+        <v>4.464354231647718</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.187595468608365</v>
+        <v>0.7377386362789196</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.789840535537792</v>
+        <v>9.811553388556035</v>
       </c>
       <c r="C21">
-        <v>0.7839324249746369</v>
+        <v>3.025705489588233</v>
       </c>
       <c r="D21">
-        <v>0.04307510647793578</v>
+        <v>0.0847212254195</v>
       </c>
       <c r="E21">
-        <v>0.6847553686611576</v>
+        <v>2.851783566085032</v>
       </c>
       <c r="F21">
-        <v>2.038587486369266</v>
+        <v>5.171304195904753</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.179896763329893</v>
+        <v>0.7449155932868194</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.97398057198302</v>
+        <v>10.73414594532949</v>
       </c>
       <c r="C22">
-        <v>0.841179685161535</v>
+        <v>3.314246898120871</v>
       </c>
       <c r="D22">
-        <v>0.04406720988179558</v>
+        <v>0.09380444722523151</v>
       </c>
       <c r="E22">
-        <v>0.7357543503820239</v>
+        <v>3.155885617354059</v>
       </c>
       <c r="F22">
-        <v>2.123109523238497</v>
+        <v>5.668312287573912</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1.175392796021939</v>
+        <v>0.7562839688670522</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.875594996329028</v>
+        <v>10.23644040212446</v>
       </c>
       <c r="C23">
-        <v>0.8106037976108951</v>
+        <v>3.158472466040905</v>
       </c>
       <c r="D23">
-        <v>0.04353415888736123</v>
+        <v>0.08883230514357621</v>
       </c>
       <c r="E23">
-        <v>0.7085061186113251</v>
+        <v>2.990903722353877</v>
       </c>
       <c r="F23">
-        <v>2.077873984331234</v>
+        <v>5.399336969615575</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1.177747856566313</v>
+        <v>0.7495171252934085</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.505263315905779</v>
+        <v>8.454815274020063</v>
       </c>
       <c r="C24">
-        <v>0.6952663060501436</v>
+        <v>2.602978920579176</v>
       </c>
       <c r="D24">
-        <v>0.04159184918428593</v>
+        <v>0.07241156109869706</v>
       </c>
       <c r="E24">
-        <v>0.6059199573793705</v>
+        <v>2.4175261710417</v>
       </c>
       <c r="F24">
-        <v>1.90924644670568</v>
+        <v>4.453288684573465</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.187730091995817</v>
+        <v>0.7377166205309607</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.110357201227885</v>
+        <v>6.686710289153723</v>
       </c>
       <c r="C25">
-        <v>0.5717327513650616</v>
+        <v>2.054463834770445</v>
       </c>
       <c r="D25">
-        <v>0.03965163600347665</v>
+        <v>0.05824283268395192</v>
       </c>
       <c r="E25">
-        <v>0.4964009163727496</v>
+        <v>1.872432136974894</v>
       </c>
       <c r="F25">
-        <v>1.732855016866665</v>
+        <v>3.542329387905312</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.200711276772694</v>
+        <v>0.7466566342944674</v>
       </c>
       <c r="O25">
         <v>0</v>
